--- a/biology/Botanique/Janet_Russell_Perkins/Janet_Russell_Perkins.xlsx
+++ b/biology/Botanique/Janet_Russell_Perkins/Janet_Russell_Perkins.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Janet Russell Perkins, née le 20 mars 1853 à Lafayette (Indiana) et morte le 7 juillet 1933 à Hinsdale, est une botaniste et ptéridologue américaine qui a fait sa carrière de botaniste en Allemagne.
 </t>
@@ -511,10 +523,12 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après avoir obtenu son Bachelor of Arts en 1872 de l'université du Wisconsin, elle s'installe en Europe où elle travaille comme professeur particulier à Hildesheim en Allemagne et étudie la musique et les langues à Paris. De retour aux États-Unis en 1875, elle enseigne durant une vingtaine d'années à Chicago[1].
-Elle repart alors en Europe pour poursuivre ses études durant quatre ans (1895-1899) à Berlin, avant de présenter son doctorat à l'université de Heidelberg. Sa thèse est une monographie du genre Mollinedia appartenant à la famille des Monimiaceae, dont elle avait déjà étudié en 1890 le genre Lauterbachia. Elle retourne ensuite à Berlin où elle travaille au musée botanique[2] sous la direction d'Adolf Engler[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après avoir obtenu son Bachelor of Arts en 1872 de l'université du Wisconsin, elle s'installe en Europe où elle travaille comme professeur particulier à Hildesheim en Allemagne et étudie la musique et les langues à Paris. De retour aux États-Unis en 1875, elle enseigne durant une vingtaine d'années à Chicago.
+Elle repart alors en Europe pour poursuivre ses études durant quatre ans (1895-1899) à Berlin, avant de présenter son doctorat à l'université de Heidelberg. Sa thèse est une monographie du genre Mollinedia appartenant à la famille des Monimiaceae, dont elle avait déjà étudié en 1890 le genre Lauterbachia. Elle retourne ensuite à Berlin où elle travaille au musée botanique sous la direction d'Adolf Engler.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Janet Russell Perkins est l'auteur de nombreuses contributions en allemand ou en anglais sur des plantes tropicales, notamment :
 (en + la) Leguminosae of Puerto Rico. 1906-1907
